--- a/Cases/Result/resultOfWeb0324+23：03：55.xlsx
+++ b/Cases/Result/resultOfWeb0324+23：03：55.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="112">
   <si>
     <t>分组信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -455,6 +455,9 @@
   <si>
     <t>购物车界面点击去结算</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -462,7 +465,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -484,6 +487,146 @@
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
     </font>
   </fonts>
   <fills count="3">
@@ -500,7 +643,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -536,12 +679,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="40">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
     <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -560,6 +721,34 @@
     </xf>
     <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
     <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -994,7 +1183,9 @@
       <c r="H4" s="8"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="K4" t="s" s="1">
+        <v>111</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -1013,7 +1204,9 @@
       <c r="H5" s="8"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="K5" t="s" s="1">
+        <v>111</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -1034,7 +1227,9 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="K6" t="s" s="1">
+        <v>111</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -1055,7 +1250,9 @@
       <c r="H7" s="8"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="K7" t="s" s="1">
+        <v>111</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -1076,7 +1273,9 @@
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="K8" t="s" s="1">
+        <v>111</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
@@ -1095,7 +1294,9 @@
       <c r="H9" s="8"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="K9" t="s" s="1">
+        <v>111</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
@@ -1129,7 +1330,9 @@
       <c r="H11" s="8"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="K11" t="s" s="1">
+        <v>111</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -1148,7 +1351,9 @@
       <c r="H12" s="8"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="K12" t="s" s="1">
+        <v>111</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -1167,7 +1372,9 @@
       <c r="H13" s="8"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="K13" t="s" s="1">
+        <v>111</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -1188,7 +1395,9 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="K14" t="s" s="1">
+        <v>111</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -1211,7 +1420,9 @@
       <c r="H15" s="8"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="K15" t="s" s="1">
+        <v>111</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
@@ -1230,7 +1441,9 @@
       <c r="H16" s="8"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="K16" t="s" s="1">
+        <v>111</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
@@ -1253,7 +1466,9 @@
       <c r="H17" s="8"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="K17" t="s" s="1">
+        <v>111</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
@@ -1272,7 +1487,9 @@
       <c r="H18" s="8"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="K18" t="s" s="1">
+        <v>111</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
@@ -1295,7 +1512,9 @@
       <c r="H19" s="8"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="K19" t="s" s="1">
+        <v>111</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
@@ -1316,7 +1535,9 @@
       <c r="H20" s="8"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="K20" t="s" s="1">
+        <v>111</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
@@ -1337,7 +1558,9 @@
       <c r="H21" s="8"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="K21" t="s" s="1">
+        <v>111</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
@@ -1356,7 +1579,9 @@
       <c r="H22" s="8"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="K22" t="s" s="1">
+        <v>111</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
@@ -1375,7 +1600,9 @@
       <c r="H23" s="8"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="K23" t="s" s="1">
+        <v>111</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
@@ -1392,7 +1619,9 @@
       <c r="H24" s="8"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="K24" t="s" s="1">
+        <v>111</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1499,7 +1728,9 @@
       <c r="H4" s="8"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="K4" t="s" s="1">
+        <v>111</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
@@ -1518,7 +1749,9 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="K5" t="s" s="1">
+        <v>111</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -1539,7 +1772,9 @@
       <c r="H6" s="8"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="K6" t="s" s="1">
+        <v>111</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -1560,7 +1795,9 @@
       <c r="H7" s="8"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="K7" t="s" s="1">
+        <v>111</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -1581,7 +1818,9 @@
       <c r="H8" s="8"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="K8" t="s" s="1">
+        <v>111</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
@@ -1600,7 +1839,9 @@
       <c r="H9" s="8"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="K9" t="s" s="1">
+        <v>111</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
@@ -1634,7 +1875,9 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="K11" t="s" s="1">
+        <v>111</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -1655,7 +1898,9 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="K12" t="s" s="1">
+        <v>111</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -1674,7 +1919,9 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="K13" t="s" s="1">
+        <v>111</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -1693,7 +1940,9 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="K14" t="s" s="1">
+        <v>111</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -1712,7 +1961,9 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="K15" t="s" s="1">
+        <v>111</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
@@ -1731,7 +1982,9 @@
       <c r="H16" s="8"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="K16" t="s" s="1">
+        <v>111</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
@@ -1750,7 +2003,9 @@
       <c r="H17" s="8"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="K17" t="s" s="1">
+        <v>111</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
@@ -1769,7 +2024,9 @@
       <c r="H18" s="8"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="K18" t="s" s="1">
+        <v>111</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
@@ -1788,7 +2045,9 @@
       <c r="H19" s="8"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="K19" t="s" s="1">
+        <v>111</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
@@ -1807,7 +2066,9 @@
       <c r="H20" s="8"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="K20" t="s" s="1">
+        <v>111</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
@@ -1830,7 +2091,9 @@
       <c r="H21" s="8"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="K21" t="s" s="39">
+        <v>111</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
@@ -1847,7 +2110,9 @@
       <c r="H22" s="8"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="K22" t="s" s="1">
+        <v>111</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
